--- a/attendance/f834ef33-ba26-495f-bd1f-cd0e1ad270e9.xlsx
+++ b/attendance/f834ef33-ba26-495f-bd1f-cd0e1ad270e9.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,24 @@
         <v>45427</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.6569404880555556</v>
+        <v>0.6569404861111111</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.7560891195949074</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Left</t>
         </is>
       </c>
     </row>
